--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/GitHub/andreaviselli.github.io/static/ITNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A8DE9-5BD5-AF44-BCC4-6BFEDD60EA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759CEB7-1FE1-8746-A2EA-E03D2E9785BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Nowcast</t>
   </si>
@@ -114,11 +114,17 @@
       <t xml:space="preserve"> (see the 'Nowcast' sheet)</t>
     </r>
   </si>
+  <si>
+    <t>Backcast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -274,23 +280,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -310,12 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -327,6 +317,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -669,74 +686,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>45648</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -750,65 +767,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="15.83203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="23" customWidth="1"/>
+    <col min="3" max="6" width="15.83203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19">
         <v>2.16166733365699E-3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="19">
         <v>-9.6306980519894397E-4</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="19">
         <v>6.3835333911170002E-3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>45648</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="C3" s="19">
         <v>3.3358012138698498E-4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="19">
         <v>-2.7623943689153601E-3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="19">
         <v>4.6565666829500602E-3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45675</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="D4" s="22">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
     </row>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/GitHub/andreaviselli.github.io/static/ITNOW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B759CEB7-1FE1-8746-A2EA-E03D2E9785BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC49BB8-2518-E941-A406-AA128424D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Nowcast</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>IT-NOW</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>95% (upper bound) of the empirical prediction interval, monthly</t>
+  </si>
+  <si>
+    <t>Backcast</t>
   </si>
   <si>
     <r>
@@ -86,8 +86,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Andrea Viselli</t>
     </r>
@@ -98,8 +98,8 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>Legend</t>
     </r>
@@ -107,15 +107,11 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> (see the 'Nowcast' sheet)</t>
     </r>
-  </si>
-  <si>
-    <t>Backcast</t>
   </si>
 </sst>
 </file>
@@ -123,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,47 +130,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +214,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -277,76 +298,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,81 +694,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="12.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="53" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8">
-        <v>45648</v>
+      <c r="A2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45717</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:2" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
+      <c r="B5" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>9</v>
+      <c r="B9" s="23" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -767,98 +781,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="23" customWidth="1"/>
-    <col min="3" max="6" width="15.83203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="12.83203125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19">
-        <v>2.16166733365699E-3</v>
-      </c>
-      <c r="D2" s="19">
-        <v>-9.6306980519894397E-4</v>
-      </c>
-      <c r="E2" s="19">
-        <v>6.3835333911170002E-3</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4">
+        <v>2.0774979510870002E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.18859437226E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-7.5776100149673397E-4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.3731985397719997E-3</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45648</v>
       </c>
-      <c r="B3" s="21">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="19">
-        <v>3.3358012138698498E-4</v>
-      </c>
-      <c r="D3" s="19">
-        <v>-2.7623943689153601E-3</v>
-      </c>
-      <c r="E3" s="19">
-        <v>4.6565666829500602E-3</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4">
+        <v>1.58897260909078E-4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3.2616874401746E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-2.5979068330139999E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.537530056263E-3</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45675</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="22">
-        <v>1E-4</v>
-      </c>
-      <c r="D4" s="22">
-        <v>-2.8E-3</v>
-      </c>
-      <c r="E4" s="22">
-        <v>4.3E-3</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>5</v>
-      </c>
+        <v>45674</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.1822143680192005E-4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.33138092781256E-4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-2.7998081995269999E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.3451720593169997E-3</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B5" s="5">
+        <v>9.7115040231823498E-4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.5371042867359899E-4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-2.5966240483699999E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.679988888085E-3</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC49BB8-2518-E941-A406-AA128424D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43B46E-588E-BE4D-A50F-7A1EF72AF17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Nowcast</t>
   </si>
@@ -113,13 +113,16 @@
       <t xml:space="preserve"> (see the 'Nowcast' sheet)</t>
     </r>
   </si>
+  <si>
+    <t>Preliminary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -302,20 +305,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,12 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -357,6 +352,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -694,80 +698,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="12.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="53" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>45717</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:2" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -781,110 +785,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
-    <col min="2" max="6" width="12.83203125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.83203125" style="22" customWidth="1"/>
+    <col min="2" max="7" width="12.83203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>2.0774979510870002E-3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2.18859437226E-3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>-7.5776100149673397E-4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>6.3731985397719997E-3</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45648</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1.58897260909078E-4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3.2616874401746E-4</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>-2.5979068330139999E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4.537530056263E-3</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45674</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>7.1822143680192005E-4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.33138092781256E-4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>-2.7998081995269999E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4.3451720593169997E-3</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45688</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>9.7115040231823498E-4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>2.5371042867359899E-4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>-2.5966240483699999E-3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.679988888085E-3</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>45717</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-1.3498623600948599E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-1.67080259537454E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>-9.3160171174270206E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43B46E-588E-BE4D-A50F-7A1EF72AF17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C13746-8C47-2443-94E2-137B94B2F872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
@@ -352,14 +352,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -730,10 +730,10 @@
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="1:2" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -785,15 +785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="20" customWidth="1"/>
     <col min="2" max="7" width="12.83203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -895,9 +895,12 @@
       <c r="F5" s="4">
         <v>-1.5100000000000001E-2</v>
       </c>
+      <c r="G5" s="4">
+        <v>1.33E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>45717</v>
       </c>
       <c r="B6" s="4">
@@ -911,6 +914,23 @@
       </c>
       <c r="E6" s="4">
         <v>-9.3160171174270206E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>45760</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C13746-8C47-2443-94E2-137B94B2F872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70850230-1BAA-FD44-85C1-76C804096A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16960" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Nowcast</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Realization of GDP growth, quarterly</t>
-  </si>
-  <si>
-    <t>Value of the real-time prediction, monthly</t>
   </si>
   <si>
     <t>5% (lower bound) of the empirical prediction interval, monthly</t>
@@ -115,6 +112,27 @@
   </si>
   <si>
     <t>Preliminary</t>
+  </si>
+  <si>
+    <t>Preliminary Realization of GDP growth, quarterly</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Q4-2024</t>
+  </si>
+  <si>
+    <t>Q1-2025</t>
+  </si>
+  <si>
+    <t>Real-time prediction for GDP growth, monthly</t>
+  </si>
+  <si>
+    <t>Updated prediction for previous month GDP growth, monthly</t>
+  </si>
+  <si>
+    <t>Reference quarter for the nowcast, if relative to a quarter</t>
   </si>
 </sst>
 </file>
@@ -305,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -360,6 +378,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -731,7 +755,7 @@
     </row>
     <row r="4" spans="1:2" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="22"/>
     </row>
@@ -744,34 +768,58 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>0</v>
+      <c r="A6" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>2</v>
+      <c r="A7" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -785,152 +833,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="20" customWidth="1"/>
-    <col min="2" max="7" width="12.83203125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.83203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="3">
         <v>2.0774979510870002E-3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>2.18859437226E-3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>-7.5776100149673397E-4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>6.3731985397719997E-3</v>
       </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45648</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="23"/>
+      <c r="C3" s="3">
         <v>1.58897260909078E-4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>3.2616874401746E-4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>-2.5979068330139999E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>4.537530056263E-3</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45674</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4">
         <v>7.1822143680192005E-4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>1.33138092781256E-4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>-2.7998081995269999E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>4.3451720593169997E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45688</v>
-      </c>
-      <c r="B5" s="4">
-        <v>9.7115040231823498E-4</v>
+      <c r="G4" s="4">
+        <v>-1.5100000000000001E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.33E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>45717</v>
       </c>
       <c r="C5" s="4">
-        <v>2.5371042867359899E-4</v>
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>-2.5966240483699999E-3</v>
+        <v>-1.3498623600948599E-2</v>
       </c>
       <c r="E5" s="4">
-        <v>3.679988888085E-3</v>
+        <v>-1.67080259537454E-2</v>
       </c>
       <c r="F5" s="4">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.33E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-9.3160171174270206E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
-        <v>45717</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-7.7999999999999996E-3</v>
+        <v>45760</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.3498623600948599E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.67080259537454E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E6" s="4">
-        <v>-9.3160171174270206E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
-        <v>45760</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-2.0999999999999999E-3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4.5999999999999999E-3</v>
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.7999999999999996E-3</v>
       </c>
     </row>
   </sheetData>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70850230-1BAA-FD44-85C1-76C804096A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE03D9-C988-C644-B04D-478D6D79FA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -139,9 +139,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -329,12 +326,6 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,16 +364,22 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -722,104 +719,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="53" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>45717</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="1:2" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="22"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -833,43 +830,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.83203125" style="24" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -877,103 +874,131 @@
       <c r="A2" s="2">
         <v>45623</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="3">
+      <c r="B2" s="19"/>
+      <c r="C2" s="23">
         <v>2.0774979510870002E-3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="23">
         <v>2.18859437226E-3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="23">
         <v>-7.5776100149673397E-4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="23">
         <v>6.3731985397719997E-3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45648</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="3">
+      <c r="B3" s="19"/>
+      <c r="C3" s="23">
         <v>1.58897260909078E-4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="23">
         <v>3.2616874401746E-4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="23">
         <v>-2.5979068330139999E-3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="23">
         <v>4.537530056263E-3</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45674</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="24">
         <v>7.1822143680192005E-4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="24">
         <v>1.33138092781256E-4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="24">
         <v>-2.7998081995269999E-3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="24">
         <v>4.3451720593169997E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="24">
         <v>-1.5100000000000001E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="24">
         <v>1.33E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>45717</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="24">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="24">
         <v>-1.3498623600948599E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="24">
         <v>-1.67080259537454E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="24">
         <v>-9.3160171174270206E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>45760</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="24">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="24">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="24">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="24">
         <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="G6" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="24">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
+        <v>45787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
+        <v>45822</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E8" s="24">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="F8" s="24">
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
   </sheetData>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE03D9-C988-C644-B04D-478D6D79FA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C49BC-0E04-1F40-9100-92E8B8126C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>Nowcast</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>IT-NOW</t>
-  </si>
-  <si>
-    <t>Date of the real-time prediction</t>
   </si>
   <si>
     <t xml:space="preserve">Update: </t>
@@ -120,12 +117,6 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>Q4-2024</t>
-  </si>
-  <si>
-    <t>Q1-2025</t>
-  </si>
-  <si>
     <t>Real-time prediction for GDP growth, monthly</t>
   </si>
   <si>
@@ -133,6 +124,30 @@
   </si>
   <si>
     <t>Reference quarter for the nowcast, if relative to a quarter</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Reference month for the nowcast</t>
+  </si>
+  <si>
+    <t>Date of the real-time prediction and data used to produce it</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -370,17 +385,23 @@
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,12 +756,12 @@
         <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9">
         <v>45717</v>
@@ -751,73 +772,81 @@
       <c r="B3" s="11"/>
     </row>
     <row r="4" spans="1:2" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="22"/>
+      <c r="A4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>0</v>
+      <c r="A8" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>8</v>
+      <c r="B13" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -830,175 +859,256 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="12.83203125" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.83203125" style="18" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="23" customWidth="1"/>
+    <col min="5" max="10" width="15.83203125" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45623</v>
       </c>
       <c r="B2" s="19"/>
-      <c r="C2" s="23">
+      <c r="C2" s="24">
+        <v>10</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="21">
         <v>2.0774979510870002E-3</v>
       </c>
-      <c r="D2" s="23">
+      <c r="F2" s="21">
         <v>2.18859437226E-3</v>
       </c>
-      <c r="E2" s="23">
+      <c r="G2" s="21">
         <v>-7.5776100149673397E-4</v>
       </c>
-      <c r="F2" s="23">
+      <c r="H2" s="21">
         <v>6.3731985397719997E-3</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45648</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="23">
+      <c r="C3" s="24">
+        <v>11</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="21">
         <v>1.58897260909078E-4</v>
       </c>
-      <c r="D3" s="23">
+      <c r="F3" s="21">
         <v>3.2616874401746E-4</v>
       </c>
-      <c r="E3" s="23">
+      <c r="G3" s="21">
         <v>-2.5979068330139999E-3</v>
       </c>
-      <c r="F3" s="23">
+      <c r="H3" s="21">
         <v>4.537530056263E-3</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45674</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C4" s="24">
+        <v>12</v>
+      </c>
+      <c r="D4" s="24">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="22">
         <v>7.1822143680192005E-4</v>
       </c>
-      <c r="D4" s="24">
+      <c r="F4" s="22">
         <v>1.33138092781256E-4</v>
       </c>
-      <c r="E4" s="24">
+      <c r="G4" s="22">
         <v>-2.7998081995269999E-3</v>
       </c>
-      <c r="F4" s="24">
+      <c r="H4" s="22">
         <v>4.3451720593169997E-3</v>
       </c>
-      <c r="G4" s="24">
+      <c r="I4" s="22">
         <v>-1.5100000000000001E-2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="J4" s="22">
         <v>1.33E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>45717</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E5" s="22">
         <v>-7.7999999999999996E-3</v>
       </c>
-      <c r="D5" s="24">
+      <c r="F5" s="22">
         <v>-1.3498623600948599E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="G5" s="22">
         <v>-1.67080259537454E-2</v>
       </c>
-      <c r="F5" s="24">
+      <c r="H5" s="22">
         <v>-9.3160171174270206E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>45760</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="24">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E6" s="22">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="D6" s="24">
+      <c r="F6" s="22">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="E6" s="24">
+      <c r="G6" s="22">
         <v>-2.5999999999999999E-3</v>
       </c>
-      <c r="F6" s="24">
+      <c r="H6" s="22">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G6" s="24">
+      <c r="I6" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="24">
+      <c r="J6" s="22">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>45787</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>45822</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E8" s="22">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="D8" s="24">
+      <c r="F8" s="22">
         <v>1.4E-3</v>
       </c>
-      <c r="E8" s="24">
+      <c r="G8" s="22">
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="F8" s="24">
+      <c r="H8" s="22">
         <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>45860</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="23">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2E-3</v>
+      </c>
+      <c r="G9" s="22">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="H9" s="22">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/MATLAB/IT-NOWCAST/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/GitHub/andreaviselli.github.io/static/ITNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C49BC-0E04-1F40-9100-92E8B8126C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A28EFDA-E9E8-0048-80A8-E422B2802C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="10100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="0" yWindow="-15880" windowWidth="29400" windowHeight="10100" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
     <sheet name="NOWCAST" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Nowcast</t>
   </si>
@@ -51,16 +51,10 @@
     <t>95Perc</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t>IT-NOW</t>
   </si>
   <si>
     <t xml:space="preserve">Update: </t>
-  </si>
-  <si>
-    <t>Realization of GDP growth, quarterly</t>
   </si>
   <si>
     <t>5% (lower bound) of the empirical prediction interval, monthly</t>
@@ -126,21 +120,12 @@
     <t>Reference quarter for the nowcast, if relative to a quarter</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Month</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
     <t>Q4</t>
   </si>
   <si>
@@ -148,13 +133,19 @@
   </si>
   <si>
     <t>Date of the real-time prediction and data used to produce it</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Release date for the preliminary Realization of GDP growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,6 +203,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -335,18 +333,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,31 +364,37 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,113 +734,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="5">
+        <v>46039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>7</v>
+      <c r="A13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -861,255 +855,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="18" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="23" customWidth="1"/>
-    <col min="5" max="10" width="15.83203125" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="18.83203125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="24" customWidth="1"/>
+    <col min="5" max="10" width="18.83203125" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45623</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="24">
-        <v>10</v>
-      </c>
-      <c r="D2" s="24">
-        <v>2024</v>
+      <c r="I1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19">
+        <v>46039</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="20">
+        <v>12</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2025</v>
       </c>
       <c r="E2" s="21">
-        <v>2.0774979510870002E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="F2" s="21">
-        <v>2.18859437226E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="G2" s="21">
-        <v>-7.5776100149673397E-4</v>
+        <v>-3.5999999999999999E-3</v>
       </c>
       <c r="H2" s="21">
-        <v>6.3731985397719997E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45648</v>
-      </c>
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="24">
-        <v>11</v>
-      </c>
-      <c r="D3" s="24">
-        <v>2024</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1.58897260909078E-4</v>
-      </c>
-      <c r="F3" s="21">
-        <v>3.2616874401746E-4</v>
-      </c>
-      <c r="G3" s="21">
-        <v>-2.5979068330139999E-3</v>
-      </c>
-      <c r="H3" s="21">
-        <v>4.537530056263E-3</v>
-      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="24">
-        <v>12</v>
-      </c>
-      <c r="D4" s="24">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="22">
-        <v>7.1822143680192005E-4</v>
-      </c>
-      <c r="F4" s="22">
-        <v>1.33138092781256E-4</v>
-      </c>
-      <c r="G4" s="22">
-        <v>-2.7998081995269999E-3</v>
-      </c>
-      <c r="H4" s="22">
-        <v>4.3451720593169997E-3</v>
-      </c>
-      <c r="I4" s="22">
-        <v>-1.5100000000000001E-2</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1.33E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>45717</v>
-      </c>
-      <c r="C5" s="23">
-        <v>2</v>
-      </c>
-      <c r="D5" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E5" s="22">
-        <v>-7.7999999999999996E-3</v>
-      </c>
-      <c r="F5" s="22">
-        <v>-1.3498623600948599E-2</v>
-      </c>
-      <c r="G5" s="22">
-        <v>-1.67080259537454E-2</v>
-      </c>
-      <c r="H5" s="22">
-        <v>-9.3160171174270206E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>45760</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="23">
-        <v>3</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E6" s="22">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F6" s="22">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G6" s="22">
-        <v>-2.5999999999999999E-3</v>
-      </c>
-      <c r="H6" s="22">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="I6" s="22">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J6" s="22">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>45787</v>
-      </c>
-      <c r="C7" s="23">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>45822</v>
-      </c>
-      <c r="C8" s="23">
-        <v>5</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E8" s="22">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="F8" s="22">
-        <v>1.4E-3</v>
-      </c>
-      <c r="G8" s="22">
-        <v>-1.6000000000000001E-3</v>
-      </c>
-      <c r="H8" s="22">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>45860</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="23">
-        <v>6</v>
-      </c>
-      <c r="D9" s="23">
-        <v>2025</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="G9" s="22">
-        <v>-1.1000000000000001E-3</v>
-      </c>
-      <c r="H9" s="22">
-        <v>6.1999999999999998E-3</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>19</v>
-      </c>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/ITNOW/ITNOW_History.xlsx
+++ b/static/ITNOW/ITNOW_History.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaviselli/Documents/GitHub/andreaviselli.github.io/static/ITNOW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A28EFDA-E9E8-0048-80A8-E422B2802C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C432B4-A52F-264F-978D-F81F53A3B9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15880" windowWidth="29400" windowHeight="10100" activeTab="1" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
+    <workbookView xWindow="-3700" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{6515F016-35AB-974D-935F-759783D4EEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="INFO" sheetId="2" r:id="rId1"/>
     <sheet name="NOWCAST" sheetId="1" r:id="rId2"/>
+    <sheet name="DATA" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>Nowcast</t>
   </si>
@@ -57,13 +58,77 @@
     <t xml:space="preserve">Update: </t>
   </si>
   <si>
-    <t>5% (lower bound) of the empirical prediction interval, monthly</t>
-  </si>
-  <si>
-    <t>95% (upper bound) of the empirical prediction interval, monthly</t>
-  </si>
-  <si>
     <t>Backcast</t>
+  </si>
+  <si>
+    <t>Preliminary</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Nowcast (YoY)</t>
+  </si>
+  <si>
+    <t>Reference month of the nowcast</t>
+  </si>
+  <si>
+    <t>Reference quarter of the nowcast (only for end-of-quarter nowcasts)</t>
+  </si>
+  <si>
+    <t>5% (lower bound) of the empirical prediction interval</t>
+  </si>
+  <si>
+    <t>95% (upper bound) of the empirical prediction interval</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Nowcasts represent quarterly growth rates, calculated over the 
+three-month period ending in the month of release.</t>
+  </si>
+  <si>
+    <t>06/02//2026</t>
+  </si>
+  <si>
+    <t>Backcast (QoQ)</t>
+  </si>
+  <si>
+    <t>Nowcast (QoQ)</t>
+  </si>
+  <si>
+    <t>5Perc (QoQ)</t>
+  </si>
+  <si>
+    <t>95Perc (QoQ)</t>
+  </si>
+  <si>
+    <t>Date (i.e., the origin) of the real-time prediction</t>
+  </si>
+  <si>
+    <t>Updated prediction of previous quarter nominal GDP growth</t>
+  </si>
+  <si>
+    <t>Real-time prediction of nominal GDP growth</t>
+  </si>
+  <si>
+    <t>Real-time prediction of year-over-year nominal GDP growth</t>
+  </si>
+  <si>
+    <t>Preliminary realisation of GDP growth</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <r>
@@ -73,7 +138,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -85,7 +150,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -94,7 +159,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -102,50 +167,250 @@
     </r>
   </si>
   <si>
-    <t>Preliminary</t>
-  </si>
-  <si>
-    <t>Preliminary Realization of GDP growth, quarterly</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Real-time prediction for GDP growth, monthly</t>
-  </si>
-  <si>
-    <t>Updated prediction for previous month GDP growth, monthly</t>
-  </si>
-  <si>
-    <t>Reference quarter for the nowcast, if relative to a quarter</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Reference month for the nowcast</t>
-  </si>
-  <si>
-    <t>Date of the real-time prediction and data used to produce it</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Release date for the preliminary Realization of GDP growth</t>
+    <t>Acronym</t>
+  </si>
+  <si>
+    <t>Short description</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Months, Weeks </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Months </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>INDPROD</t>
+  </si>
+  <si>
+    <t>Industrial production Index</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>EUROSTAT</t>
+  </si>
+  <si>
+    <t>CONSTRPROD</t>
+  </si>
+  <si>
+    <t>Index of production in construction</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>INDTURN</t>
+  </si>
+  <si>
+    <t>Turnover in industry</t>
+  </si>
+  <si>
+    <t>4, 0</t>
+  </si>
+  <si>
+    <t>ISTAT</t>
+  </si>
+  <si>
+    <t>INDPRODPRC</t>
+  </si>
+  <si>
+    <t>Producer prices in industry</t>
+  </si>
+  <si>
+    <t>0, 4</t>
+  </si>
+  <si>
+    <t>INDIMPPRC</t>
+  </si>
+  <si>
+    <t>Import prices in industry</t>
+  </si>
+  <si>
+    <t>CONSTRCOST</t>
+  </si>
+  <si>
+    <t>Construction cost index for residential buildings</t>
+  </si>
+  <si>
+    <t>HICPALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All-items harmonized index of consumer prices </t>
+  </si>
+  <si>
+    <t>0, 3</t>
+  </si>
+  <si>
+    <t>EER41EUR</t>
+  </si>
+  <si>
+    <t>Nominal effective exchange rate - 41/Euro</t>
+  </si>
+  <si>
+    <t>0, 0</t>
+  </si>
+  <si>
+    <t>ECB</t>
+  </si>
+  <si>
+    <t>FTSEMIB</t>
+  </si>
+  <si>
+    <t>FTSE MIB index</t>
+  </si>
+  <si>
+    <t>STOOQ</t>
+  </si>
+  <si>
+    <t>TOURNIGHT</t>
+  </si>
+  <si>
+    <t>Nights spent at tourist accommodation establishments</t>
+  </si>
+  <si>
+    <t>NEWPCAREG</t>
+  </si>
+  <si>
+    <t>New passenger car registration (EA20)</t>
+  </si>
+  <si>
+    <t>UNEMPLNUM</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <t>TRADEBAL</t>
+  </si>
+  <si>
+    <t>Balance of trade</t>
+  </si>
+  <si>
+    <t>RETLTRADE</t>
+  </si>
+  <si>
+    <t>Retail trade sales</t>
+  </si>
+  <si>
+    <t>1, 1</t>
+  </si>
+  <si>
+    <t>ITESI</t>
+  </si>
+  <si>
+    <t>Economic sentiment indicator</t>
+  </si>
+  <si>
+    <t>ITCCI</t>
+  </si>
+  <si>
+    <t>Composite consumer confidence index</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>ITCBC</t>
+  </si>
+  <si>
+    <t>Composite business confidence index</t>
+  </si>
+  <si>
+    <t>EUROCOIN</t>
+  </si>
+  <si>
+    <t>Cyclical index of the Euro-Area economy</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>ITACOIN</t>
+  </si>
+  <si>
+    <t>Cyclical index of the Italian economy</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Nominal gross domestic product</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>(1) All series — except ITESI, ITCCI, ITCBC — are subject to revisions due to seasonal adjustment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(2) Exact publication delay relative to the reference month, formatted as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>month(s), week(s)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(3) Approximation of publication delay relative to the reference month. In general, if the release occurs at the beginning of a month (e.g., during the first week), this is considered as belonging to the previous month; otherwise, it is considered as available in the following month.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Data information including the series acronym, exact and approximate publication delay expressed in months and weeks, and months, respectively, 
+and source used to generate nowcasts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,26 +428,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -213,8 +458,75 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,36 +541,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -328,74 +646,244 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFF00"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,118 +1222,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90D93CB-F2CC-4846-9043-D3CBF77BCCEB}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="53" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
+      <c r="B1" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>46039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="B8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,112 +1345,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB345B88-5858-7445-BD80-F1D8778C0EB0}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="18.83203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="24" customWidth="1"/>
-    <col min="5" max="10" width="18.83203125" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="3" width="18.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="8" customWidth="1"/>
+    <col min="5" max="10" width="18.83203125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>46039</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
-        <v>46039</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="C2" s="6">
         <v>12</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="6">
         <v>2025</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="3">
         <v>2.3E-3</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="3">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="3">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="3">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="A3" s="5">
+        <v>46059</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2026</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-2.8E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="24"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="24"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="24"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="24"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="24"/>
+      <c r="C9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A626EE9-CB1D-4D42-AA2F-26B3DD316185}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="27" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="30">
+        <v>2</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="34">
+        <v>2</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="34">
+        <v>1</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="34">
+        <v>2</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="34">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="34">
+        <v>1</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="34">
+        <v>2</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="34">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="34">
+        <v>2</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="34">
+        <v>0</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="39">
+        <v>1</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
+    </row>
+    <row r="25" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>